--- a/data/client-sites_template.xlsx
+++ b/data/client-sites_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\court\Documents\GitHub\staffing-map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCB86A7F-BA1D-4FBB-B9D5-2D8C51E1CD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4696B-E904-4004-9672-38168A4F6DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="15390" windowHeight="9532"/>
+    <workbookView xWindow="44580" yWindow="-3735" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client-sites_template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>COMPANY</t>
   </si>
@@ -90,12 +90,21 @@
   </si>
   <si>
     <t>Forklift</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -942,7 +951,7 @@
     <col min="1" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,6 +989,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -987,20 +999,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>validations!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validations!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>validations!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACA1A813-8686-4EE8-8C35-393324E40E73}">
           <x14:formula1>
             <xm:f>validations!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -1013,16 +1031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1030,10 +1048,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1041,10 +1062,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1052,10 +1076,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1063,12 +1090,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
